--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -476,11 +476,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ajeet12s3</t>
+          <t>abcded</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4262</v>
+        <v>4275</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>08:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4275</v>
+        <v>4262</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>patient_id</t>
@@ -471,20 +476,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abcded</t>
+          <t>adss</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4262</v>
+        <v>4286</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ajeet Acharya</t>
+          <t>User</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,12 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>patient_id</t>
@@ -476,20 +471,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adss</t>
+          <t>abcded</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4286</v>
+        <v>4262</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Ajeet Acharya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>appointment date time</t>
+          <t>appointment_date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>appointment time</t>
+          <t>appointment_time</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abcded</t>
+          <t>Check123Check</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -494,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>08:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/Appointment/doctor_appointments.xlsx
+++ b/Appointment/doctor_appointments.xlsx
@@ -476,11 +476,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Check123Check</t>
+          <t>self.senderId</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4262</v>
+        <v>4280</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
